--- a/docs/excel/TPayBag.xlsx
+++ b/docs/excel/TPayBag.xlsx
@@ -391,10 +391,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>变量持续时间，0表示只要满足就触发弹窗，1以上表示变量保存天数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>直通车</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -428,6 +424,10 @@
   </si>
   <si>
     <t>金币数量，0表示不判定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量持续时间，0表示只要满足就触发弹窗，1以上表示变量保存天数，超过天数清除变量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -877,13 +877,13 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.59765625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="35.09765625" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
     <col min="4" max="4" width="35.5" customWidth="1"/>
     <col min="5" max="5" width="24.296875" customWidth="1"/>
     <col min="6" max="6" width="22.19921875" customWidth="1"/>
@@ -901,16 +901,16 @@
         <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -949,19 +949,19 @@
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -992,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>

--- a/docs/excel/TPayBag.xlsx
+++ b/docs/excel/TPayBag.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -428,6 +428,45 @@
   </si>
   <si>
     <t>变量持续时间，0表示只要满足就触发弹窗，1以上表示变量保存天数，超过天数清除变量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
+  </si>
+  <si>
+    <t>关联的兑换Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买限制次数0不限 其他限制次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买次数清理0不清 1日清</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -874,23 +913,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.59765625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" customWidth="1"/>
+    <col min="4" max="4" width="25.8984375" customWidth="1"/>
     <col min="5" max="5" width="24.296875" customWidth="1"/>
     <col min="6" max="6" width="22.19921875" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" customWidth="1"/>
+    <col min="7" max="7" width="14.69921875" customWidth="1"/>
+    <col min="8" max="8" width="13.09765625" customWidth="1"/>
+    <col min="9" max="9" width="15.796875" customWidth="1"/>
+    <col min="10" max="10" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>47</v>
       </c>
@@ -912,8 +954,17 @@
       <c r="G1" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -924,7 +975,7 @@
         <v>46</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>46</v>
@@ -935,13 +986,25 @@
       <c r="G2" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -963,8 +1026,17 @@
       <c r="G4" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -986,8 +1058,14 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1009,8 +1087,14 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1032,8 +1116,14 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1055,29 +1145,35 @@
       <c r="G8">
         <v>5000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/docs/excel/TPayBag.xlsx
+++ b/docs/excel/TPayBag.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -467,6 +467,18 @@
   </si>
   <si>
     <t>购买次数清理0不清 1日清</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送类型 1级场破产返回大厅 2初中级场破产返回大厅 3初中级场非破产返回大厅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -913,26 +925,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.59765625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.8984375" customWidth="1"/>
-    <col min="4" max="4" width="25.8984375" customWidth="1"/>
-    <col min="5" max="5" width="24.296875" customWidth="1"/>
-    <col min="6" max="6" width="22.19921875" customWidth="1"/>
-    <col min="7" max="7" width="14.69921875" customWidth="1"/>
-    <col min="8" max="8" width="13.09765625" customWidth="1"/>
-    <col min="9" max="9" width="15.796875" customWidth="1"/>
-    <col min="10" max="10" width="9.09765625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="25.8984375" customWidth="1"/>
+    <col min="6" max="6" width="24.296875" customWidth="1"/>
+    <col min="7" max="7" width="22.19921875" customWidth="1"/>
+    <col min="8" max="8" width="14.69921875" customWidth="1"/>
+    <col min="9" max="9" width="13.09765625" customWidth="1"/>
+    <col min="10" max="10" width="15.796875" customWidth="1"/>
+    <col min="11" max="11" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>47</v>
       </c>
@@ -940,31 +952,34 @@
         <v>51</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -972,13 +987,13 @@
         <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>46</v>
@@ -987,24 +1002,27 @@
         <v>46</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>68</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -1012,31 +1030,34 @@
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1044,9 +1065,9 @@
         <v>50</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5">
@@ -1059,13 +1080,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1073,28 +1097,31 @@
         <v>56</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1102,78 +1129,84 @@
         <v>56</v>
       </c>
       <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" s="1">
+        <v>3</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>5000</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
       <c r="I8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/docs/excel/TPayBag.xlsx
+++ b/docs/excel/TPayBag.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -395,90 +395,94 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>高级场破产后，是否在中低级场又破产 0不是1是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中低级场局数，0表示不判定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币数量，0表示不判定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量持续时间，0表示只要满足就触发弹窗，1以上表示变量保存天数，超过天数清除变量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
+  </si>
+  <si>
+    <t>关联的兑换Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买限制次数0不限 其他限制次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买次数清理0不清 1日清</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送类型 1级场破产返回大厅 2初中级场破产返回大厅 3初中级场非破产返回大厅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在中低级场破产次数 0表示不判定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>IsBankrupInMid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>高级场破产后，是否在中低级场又破产 0不是1是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>NumOfBankrup</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在中低级场破产次数 0表示不判定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中低级场局数，0表示不判定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RoundNum</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GoldNum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币数量，0表示不判定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量持续时间，0表示只要满足就触发弹窗，1以上表示变量保存天数，超过天数清除变量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Limit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClearType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AwardId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]int32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListSpliter: ";"</t>
-  </si>
-  <si>
-    <t>关联的兑换Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买限制次数0不限 其他限制次数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买次数清理0不清 1日清</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Push</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送类型 1级场破产返回大厅 2初中级场破产返回大厅 3初中级场非破产返回大厅</t>
+    <t>IsBankrupInHigh</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -925,26 +929,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.59765625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="25.8984375" customWidth="1"/>
-    <col min="6" max="6" width="24.296875" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" customWidth="1"/>
-    <col min="8" max="8" width="14.69921875" customWidth="1"/>
-    <col min="9" max="9" width="13.09765625" customWidth="1"/>
-    <col min="10" max="10" width="15.796875" customWidth="1"/>
-    <col min="11" max="11" width="9.09765625" customWidth="1"/>
+    <col min="4" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="25.8984375" customWidth="1"/>
+    <col min="7" max="7" width="24.296875" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" customWidth="1"/>
+    <col min="9" max="9" width="14.69921875" customWidth="1"/>
+    <col min="10" max="10" width="13.09765625" customWidth="1"/>
+    <col min="11" max="11" width="15.796875" customWidth="1"/>
+    <col min="12" max="12" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>47</v>
       </c>
@@ -952,34 +956,37 @@
         <v>51</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -987,16 +994,16 @@
         <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>46</v>
@@ -1005,24 +1012,27 @@
         <v>46</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -1030,34 +1040,35 @@
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1070,8 +1081,8 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" s="1">
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1083,13 +1094,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1102,26 +1116,29 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1134,26 +1151,29 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1166,47 +1186,50 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5000</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/docs/excel/TPayBag.xlsx
+++ b/docs/excel/TPayBag.xlsx
@@ -419,18 +419,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Limit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int32</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ClearType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AwardId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -483,6 +475,14 @@
   </si>
   <si>
     <t>IsBankrupInHigh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsLimit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDailyClear</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -932,7 +932,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -956,34 +956,34 @@
         <v>51</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -994,13 +994,13 @@
         <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>62</v>
@@ -1015,13 +1015,13 @@
         <v>46</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1040,7 +1040,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>61</v>
@@ -1050,7 +1050,7 @@
         <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>58</v>
@@ -1059,13 +1059,13 @@
         <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">

--- a/docs/excel/TPayBag.xlsx
+++ b/docs/excel/TPayBag.xlsx
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1102,6 +1102,9 @@
       <c r="K5">
         <v>1</v>
       </c>
+      <c r="L5">
+        <v>4000</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1137,6 +1140,9 @@
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="L6">
+        <v>4001</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1172,6 +1178,9 @@
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="L7">
+        <v>4001</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1206,6 +1215,9 @@
       </c>
       <c r="K8">
         <v>1</v>
+      </c>
+      <c r="L8">
+        <v>4002</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">

--- a/docs/excel/TPayBag.xlsx
+++ b/docs/excel/TPayBag.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -483,6 +483,20 @@
   </si>
   <si>
     <t>IsDailyClear</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>001;4002</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -932,7 +946,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1140,8 +1154,8 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6">
-        <v>4001</v>
+      <c r="L6" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1178,8 +1192,8 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7">
-        <v>4001</v>
+      <c r="L7" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1217,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>4002</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">

--- a/docs/excel/TPayBag.xlsx
+++ b/docs/excel/TPayBag.xlsx
@@ -946,7 +946,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
